--- a/plantillaHPV/historiasVida.xlsx
+++ b/plantillaHPV/historiasVida.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Buitrago\Downloads\plantillaHPV\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -575,14 +575,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -646,20 +646,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9038</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,8 +678,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1228725" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,7 +1016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1064,6 +1064,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1082,6 +1083,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1100,6 +1102,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1118,6 +1121,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -1136,6 +1140,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1154,6 +1159,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
@@ -1162,18 +1168,19 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1192,8 +1199,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1209,22 +1218,23 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="V9" s="9" t="s">
+      <c r="Q9" s="3"/>
+      <c r="V9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Z9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">

--- a/plantillaHPV/historiasVida.xlsx
+++ b/plantillaHPV/historiasVida.xlsx
@@ -646,20 +646,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,7 +678,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="0"/>
+          <a:off x="1495425" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
